--- a/data/processed/resultados_completos.xlsx
+++ b/data/processed/resultados_completos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03190432908391744</v>
+        <v>-0.03190432908391766</v>
       </c>
       <c r="D2" t="n">
         <v>0.0925609544197199</v>
@@ -481,7 +481,7 @@
         <v>0.044788597287792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03841494775303014</v>
+        <v>0.03841494775303017</v>
       </c>
       <c r="D3" t="n">
         <v>0.08189643990860539</v>
@@ -497,7 +497,7 @@
         <v>0.03038880466976342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03038880466976338</v>
+        <v>0.03038880466976332</v>
       </c>
       <c r="D4" t="n">
         <v>0.06925508105498235</v>
@@ -513,7 +513,7 @@
         <v>0.02815061688569131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0281506168856912</v>
+        <v>0.02815061688569126</v>
       </c>
       <c r="D5" t="n">
         <v>0.06652117159121003</v>
@@ -529,7 +529,7 @@
         <v>0.02138561870360136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02138561870360131</v>
+        <v>0.02138561870360137</v>
       </c>
       <c r="D6" t="n">
         <v>0.06506085823783629</v>
@@ -545,7 +545,7 @@
         <v>0.1331743819784788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07777157699827669</v>
+        <v>0.07777157699827658</v>
       </c>
       <c r="D7" t="n">
         <v>0.201198054164643</v>
@@ -561,7 +561,7 @@
         <v>0.1476679494345654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1476679494345652</v>
+        <v>0.1476679494345654</v>
       </c>
       <c r="D8" t="n">
         <v>0.1989877699003291</v>
@@ -577,7 +577,7 @@
         <v>0.2068416848690867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2068416848690866</v>
+        <v>0.2068416848690868</v>
       </c>
       <c r="D9" t="n">
         <v>0.208009576449321</v>
@@ -593,7 +593,7 @@
         <v>0.1341876508514964</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1467807923172599</v>
+        <v>0.1467807923172601</v>
       </c>
       <c r="D10" t="n">
         <v>0.192470035167415</v>
@@ -609,7 +609,7 @@
         <v>0.1899140828104255</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1899140828104253</v>
+        <v>0.1899140828104255</v>
       </c>
       <c r="D11" t="n">
         <v>0.2044346623074068</v>
@@ -641,7 +641,7 @@
         <v>0.4828469287594371</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4828469287594372</v>
+        <v>0.4828469287594374</v>
       </c>
       <c r="D13" t="n">
         <v>0.4661112522040577</v>
@@ -657,7 +657,7 @@
         <v>0.4893197373032577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4893197373032577</v>
+        <v>0.4893197373032579</v>
       </c>
       <c r="D14" t="n">
         <v>0.4582133243910436</v>
@@ -673,7 +673,7 @@
         <v>0.324960863737152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3249608637371518</v>
+        <v>0.324960863737152</v>
       </c>
       <c r="D15" t="n">
         <v>0.3538702214027873</v>
@@ -705,7 +705,7 @@
         <v>0.927642605466933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8737429963587633</v>
+        <v>0.873742996358764</v>
       </c>
       <c r="D17" t="n">
         <v>0.7923442847951973</v>
@@ -721,7 +721,7 @@
         <v>0.9614195895604811</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9614195895604805</v>
+        <v>0.9614195895604811</v>
       </c>
       <c r="D18" t="n">
         <v>0.8633926118646186</v>
@@ -753,7 +753,7 @@
         <v>0.8334264365511764</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8334264365511759</v>
+        <v>0.8334264365511763</v>
       </c>
       <c r="D20" t="n">
         <v>0.8108451772844869</v>
@@ -769,7 +769,7 @@
         <v>0.8551030345052811</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8551030345052806</v>
+        <v>0.855103034505281</v>
       </c>
       <c r="D21" t="n">
         <v>0.8058106018194531</v>
